--- a/biology/Botanique/Gardena_(entreprise)/Gardena_(entreprise).xlsx
+++ b/biology/Botanique/Gardena_(entreprise)/Gardena_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Gardena GmbH est une entreprise allemande spécialisée dans la fabrication d'outils pour le jardinage. Son siège est situé à Ulm et l'entreprise emploie environ 2 800 employés dans le monde dont 1 600 en Allemagne[2].
+Gardena GmbH est une entreprise allemande spécialisée dans la fabrication d'outils pour le jardinage. Son siège est situé à Ulm et l'entreprise emploie environ 2 800 employés dans le monde dont 1 600 en Allemagne.
 Des unités de productions sont localisées à Gerstetten et Niederstotzingen, en Bade-Wurtemberg.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2007, Gardena est rachetée par le groupe suédois Husqvarna AB[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, Gardena est rachetée par le groupe suédois Husqvarna AB.
 </t>
         </is>
       </c>
